--- a/Time Plan.xlsx
+++ b/Time Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB06C2A-1D68-49D6-91F5-071A2180910F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F22E58D-5E32-4CDC-BDA7-F68DD2F4147B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>AEM Exam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -144,8 +144,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -431,24 +431,24 @@
   <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="33" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>44165</v>
       </c>
@@ -456,7 +456,7 @@
       <c r="AK1" s="2"/>
       <c r="AM1" s="2"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44166</v>
       </c>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44167</v>
       </c>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44168</v>
       </c>
@@ -497,8 +497,11 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44169</v>
       </c>
@@ -512,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44170</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44171</v>
       </c>
@@ -533,113 +539,116 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44172</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44173</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44174</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44175</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44176</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44177</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44178</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44179</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44180</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44181</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44182</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44183</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44186</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44187</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44189</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44190</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44191</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44192</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44193</v>
       </c>
@@ -647,42 +656,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44194</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44195</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44196</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44197</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44198</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44199</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44200</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44201</v>
       </c>
@@ -690,12 +699,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44202</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44203</v>
       </c>

--- a/Time Plan.xlsx
+++ b/Time Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJJ\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB06C2A-1D68-49D6-91F5-071A2180910F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C22F4-783C-4C76-A87B-B7D243A56CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>AEM Exam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,42 @@
   </si>
   <si>
     <t>Exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control L1-3 example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power CPU 1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEM Mock all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 Control Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 AEM Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 Power Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise Addition &amp; SNR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE CW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portaudio Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -144,8 +180,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -430,15 +466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -492,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -509,7 +545,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -553,30 +592,63 @@
       <c r="A11" s="1">
         <v>44175</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44176</v>
       </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44177</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44178</v>
       </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44179</v>
       </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/Time Plan.xlsx
+++ b/Time Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJJ\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667BF47-C4F3-49A1-9B08-A72FBE6A0C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB53B5-19B7-48C3-9069-326899F89141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>AEM Exam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>PEAC Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEM PDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEM PCA &amp; PDE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +146,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,10 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,41 +487,41 @@
     <col min="37" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>44183</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>44184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>44185</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>44186</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -506,7 +530,7 @@
         <v>44187</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -517,7 +541,10 @@
         <v>44188</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,13 +554,16 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44190</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/Time Plan.xlsx
+++ b/Time Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJJ\Desktop\MaxBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB53B5-19B7-48C3-9069-326899F89141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CE0C4-C9E0-4ED3-8B60-D1576BF7FC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3744" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>AEM Exam</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>AEM PCA &amp; PDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDE &amp; Haar TF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +163,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,13 +199,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -467,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,7 +509,7 @@
     <col min="37" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>44183</v>
       </c>
@@ -495,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44184</v>
       </c>
@@ -503,40 +525,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>44185</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>44186</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>44187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44188</v>
       </c>
@@ -547,18 +569,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44189</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44190</v>
       </c>
@@ -566,7 +591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44191</v>
       </c>
@@ -574,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44192</v>
       </c>
@@ -585,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44193</v>
       </c>
@@ -596,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44194</v>
       </c>
@@ -604,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44195</v>
       </c>
@@ -612,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -620,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44197</v>
       </c>
@@ -628,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44198</v>
       </c>
